--- a/chapter9/Chapter9-1a.xlsx
+++ b/chapter9/Chapter9-1a.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23CAC1A-4006-4E38-BDF3-657C9894452A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F5B29B-11C0-6F49-878D-0E10B3ED60F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="525" windowWidth="10380" windowHeight="8895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18440" yWindow="2400" windowWidth="20220" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Naive-Bayes-1" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="20">
   <si>
     <t>normal</t>
   </si>
@@ -79,7 +84,13 @@
     <t>Scoring</t>
   </si>
   <si>
-    <t>?</t>
+    <t>p’(scoring|yes)</t>
+  </si>
+  <si>
+    <t>p’(scoring|no)</t>
+  </si>
+  <si>
+    <t>P(yes|scoring)</t>
   </si>
 </sst>
 </file>
@@ -173,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -187,19 +198,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -484,32 +492,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
@@ -517,62 +528,124 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <f>COUNTIF(E13:E22,C2)</f>
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <f>COUNTIF(E13:E22,D2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="C4">
+        <f>C$3/$B$1</f>
+        <v>0.6</v>
+      </c>
+      <c r="D4">
+        <f>D$3/$B$1</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="C5">
+        <f>COUNTIFS($E$13:$E$22,C$2,$B$13:$B$22,$B5)/C$3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D5">
+        <f>COUNTIFS($E$13:$E$22,D$2,$B$13:$B$22,$B5)/D$3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="C6">
+        <f>COUNTIFS($E$13:$E$22,C$2,$B$13:$B$22,$B6)/C$3</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D6">
+        <f>COUNTIFS($E$13:$E$22,D$2,$B$13:$B$22,$B6)/D$3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="C7">
+        <f>COUNTIFS($E$13:$E$22,C$2,$C$13:$C$22,$B7)/C$3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D7">
+        <f>COUNTIFS($E$13:$E$22,D$2,$C$13:$C$22,$B7)/D$3</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="C8">
+        <f>COUNTIFS($E$13:$E$22,C$2,$C$13:$C$22,$B8)/C$3</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D8">
+        <f>COUNTIFS($E$13:$E$22,D$2,$C$13:$C$22,$B8)/D$3</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="C9">
+        <f>COUNTIFS($E$13:$E$22,C$2,$D$13:$D$22,$B9)/C$3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D9">
+        <f>COUNTIFS($E$13:$E$22,D$2,$D$13:$D$22,$B9)/D$3</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
       <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <f>COUNTIFS($E$13:$E$22,C$2,$D$13:$D$22,$B10)/C$3</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D10">
+        <f>COUNTIFS($E$13:$E$22,D$2,$D$13:$D$22,$B10)/D$3</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -589,7 +662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -606,7 +679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -623,7 +696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -640,7 +713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -657,7 +730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>5</v>
       </c>
@@ -674,7 +747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -691,7 +764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>7</v>
       </c>
@@ -708,7 +781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>8</v>
       </c>
@@ -725,7 +798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>9</v>
       </c>
@@ -742,7 +815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>10</v>
       </c>
@@ -758,11 +831,17 @@
       <c r="E22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
@@ -775,39 +854,52 @@
       <c r="D23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E23" s="4" t="str">
+        <f>IF(H23&gt;0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+      <c r="F23">
+        <f>SUMIF($B$5:$B$10,$B23,C$5:C$10) * SUMIF($B$5:$B$10,$C23,C$5:C$10) * SUMIF($B$5:$B$10,$D23,C$5:C$10)*C$4</f>
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ref="G23:H23" si="0">SUMIF($B$5:$B$10,$B23,D$5:D$10) * SUMIF($B$5:$B$10,$C23,D$5:D$10) * SUMIF($B$5:$B$10,$D23,D$5:D$10)*D$4</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H23">
+        <f>F23/(F23+G23)</f>
+        <v>0.96525096525096521</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
     </row>
